--- a/w.xlsx
+++ b/w.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\Medium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\Matplotlib-real-time-viz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3790E1-6E7F-4062-8436-CF621FEB0D79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B14E466-69C2-44CF-8559-9268C72ADD09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16428" yWindow="2544" windowWidth="6588" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5736" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="w" sheetId="1" r:id="rId1"/>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,8 +1441,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f ca="1">RAND()</f>
-        <v>0.40808510965323319</v>
+        <v>9.9751734511753787E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1453,8 +1452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f ca="1">RAND()</f>
-        <v>9.6953447173705021E-2</v>
+        <v>5.4666600175120594E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1465,8 +1463,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f ca="1">RAND()</f>
-        <v>0.11279638911351975</v>
+        <v>0.44145909370248937</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1477,8 +1474,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f ca="1">RAND()</f>
-        <v>0.67751100615536397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1489,8 +1485,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f ca="1">RAND()</f>
-        <v>0.37172462869739353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,8 +1496,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f ca="1">RAND()</f>
-        <v>0.8262625753473084</v>
+        <v>0.6842141640507875</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1513,8 +1507,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f ca="1">RAND()</f>
-        <v>3.5695636345386972E-2</v>
+        <v>0.3205619392605773</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,8 +1518,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f ca="1">RAND()</f>
-        <v>0.43367774244023394</v>
+        <v>0.39630535110290777</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1537,8 +1529,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f ca="1">RAND()</f>
-        <v>0.90595689687169423</v>
+        <v>0.3198847001369759</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,8 +1540,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f ca="1">RAND()</f>
-        <v>0.63934391010526914</v>
+        <v>0.55493120938621598</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,8 +1551,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f ca="1">RAND()</f>
-        <v>0.69238511635832212</v>
+        <v>0.87959715513394587</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,8 +1562,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RAND()</f>
-        <v>0.37249662115460747</v>
+        <v>0.27884233258419355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1585,8 +1573,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27495944905074343</v>
+        <v>0.99134412712434583</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,8 +1584,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39115340449039848</v>
+        <v>0.31776564802211316</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1609,8 +1595,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13261462281903103</v>
+        <v>0.98874971309102433</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1621,8 +1606,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76886244854940244</v>
+        <v>1.8545123650601014E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,8 +1617,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95992984321507913</v>
+        <v>0.66491526386615474</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1645,8 +1628,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56859284571086821</v>
+        <v>0.15274778060223226</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1657,8 +1639,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55389268582994433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1669,8 +1650,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.13264879802434E-2</v>
+        <v>0.76224285329468289</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1681,8 +1661,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6905766930054692</v>
+        <v>0.90124243700992246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,8 +1672,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26600953703974661</v>
+        <v>0.37717722381629637</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,8 +1683,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12369644869716845</v>
+        <v>0.99352818500986917</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1717,8 +1694,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12357284135924074</v>
+        <v>0.13428134771796485</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1729,8 +1705,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68108119311612991</v>
+        <v>0.74795214823696765</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1741,8 +1716,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89935799798234328</v>
+        <v>0.2585048242031508</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1753,8 +1727,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77837917380985222</v>
+        <v>0.31388633689097034</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,8 +1738,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93355154771573101</v>
+        <v>0.9613837360237244</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1777,8 +1749,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.69439711360272838</v>
+        <v>0.16356595792533335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1789,8 +1760,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2504150816970556E-2</v>
+        <v>0.52545561831025278</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1801,8 +1771,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22602790372664849</v>
+        <v>0.40161921015541258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1813,8 +1782,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97053985956364996</v>
+        <v>0.58860174404524557</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,8 +1793,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79870186215215855</v>
+        <v>9.9497025141055739E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,8 +1804,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53932804732147077</v>
+        <v>0.48759830984393693</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1849,8 +1815,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23237664192400775</v>
+        <v>0.46449336604569436</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1861,8 +1826,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42478455082066213</v>
+        <v>0.41923253831887863</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1873,8 +1837,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53970500659733567</v>
+        <v>0.86290407287580551</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1885,8 +1848,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78288910053517102</v>
+        <v>0.32196610242503321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1897,8 +1859,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10472017427774127</v>
+        <v>0.75085092737907999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1909,8 +1870,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1768129014622899</v>
+        <v>0.56326698632681094</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1921,8 +1881,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64882691633020206</v>
+        <v>0.41820932223916907</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1933,8 +1892,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14118757005794791</v>
+        <v>0.61028501623089837</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1945,8 +1903,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52815909008189077</v>
+        <v>0.39984616579964893</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1957,8 +1914,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93039917315230347</v>
+        <v>0.4821879273572699</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,8 +1925,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58271872743867659</v>
+        <v>0.70520426761966948</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1981,8 +1936,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50567141275470817</v>
+        <v>0.57019078238127574</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1993,8 +1947,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23438006539490464</v>
+        <v>0.32574043642622452</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2005,8 +1958,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0415649874976283E-2</v>
+        <v>0.78277005521824294</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2017,8 +1969,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7289621186679599</v>
+        <v>0.72776977200285131</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,8 +1980,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2679286322484663</v>
+        <v>0.2164378498130517</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2041,8 +1991,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30276941750839381</v>
+        <v>0.35671841970599016</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2053,8 +2002,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9440438050198825</v>
+        <v>0.83032173115920405</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2065,8 +2013,7 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12839318072961259</v>
+        <v>0.17297570041968624</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2077,8 +2024,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6415221549602359</v>
+        <v>0.80720026375092069</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2089,8 +2035,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25248995395169604</v>
+        <v>0.52335020643176067</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,8 +2046,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21305885728742124</v>
+        <v>0.44494366957249776</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2113,8 +2057,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41501704762409619</v>
+        <v>0.42377347383552577</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2125,8 +2068,7 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27931030781543287</v>
+        <v>0.28678069032832476</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2137,8 +2079,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8019983489276976E-3</v>
+        <v>0.73369242010496316</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2149,8 +2090,7 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91556115389455139</v>
+        <v>0.27624190877722332</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2161,8 +2101,7 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73096806648364654</v>
+        <v>0.92805314499249936</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2173,8 +2112,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72952408868738794</v>
+        <v>0.73523913770015803</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2185,8 +2123,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64923893091479223</v>
+        <v>0.58163167539817606</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2197,8 +2134,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10963057098381734</v>
+        <v>0.89634962910036509</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2209,8 +2145,7 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40940108660412555</v>
+        <v>6.4022307726182337E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2221,8 +2156,7 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" ca="1" si="1">RAND()</f>
-        <v>0.82817333352270561</v>
+        <v>0.79147309988879966</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2233,8 +2167,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3074830133299473E-2</v>
+        <v>0.91657911850537943</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2245,8 +2178,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83688559559783626</v>
+        <v>0.26230158598093356</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2257,8 +2189,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.85248518713865828</v>
+        <v>0.79192887973373138</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2269,8 +2200,7 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58989545443076652</v>
+        <v>0.55304459639561476</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2281,8 +2211,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12233948312591258</v>
+        <v>0.36685070308354906</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2293,8 +2222,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68544236562238781</v>
+        <v>0.6730577960167845</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2305,8 +2233,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27066253997503753</v>
+        <v>0.92448630451472746</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2317,8 +2244,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93224090890638256</v>
+        <v>0.75815925569487186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2329,8 +2255,7 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83665551243406688</v>
+        <v>0.10729903764225424</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2341,8 +2266,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.35762146783915616</v>
+        <v>0.79026894439948958</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,8 +2277,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27188408990943091</v>
+        <v>0.98184200053801207</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,8 +2288,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.2525773686245696E-2</v>
+        <v>9.7926720670975631E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2377,8 +2299,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34296119755946919</v>
+        <v>0.61550518213232297</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2389,8 +2310,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29646496676743439</v>
+        <v>3.8654249823268261E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2401,8 +2321,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79965956214989775</v>
+        <v>0.83162366509538799</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2413,8 +2332,7 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86442399571794448</v>
+        <v>3.955311277489193E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2425,8 +2343,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36522882599295559</v>
+        <v>0.78879511500730159</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2437,8 +2354,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71244899202973733</v>
+        <v>0.62270314748929367</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2449,8 +2365,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9046282349707262</v>
+        <v>0.19402507467929897</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2461,8 +2376,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64524079387263378</v>
+        <v>0.14637575813242021</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2473,8 +2387,7 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5041238919726494</v>
+        <v>0.36859575029302682</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2485,8 +2398,7 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51142722188107748</v>
+        <v>0.7078756561497288</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,8 +2409,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.55788143075007712</v>
+        <v>0.17578613479714988</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2509,8 +2420,7 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78762744115135741</v>
+        <v>0.16630317172951925</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2521,8 +2431,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7102559195500788E-2</v>
+        <v>5.2225798924700029E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2533,8 +2442,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.62025234175011357</v>
+        <v>2.946221414731609E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2545,8 +2453,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10522301276441293</v>
+        <v>0.72061789447118096</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2557,8 +2464,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41008921598690284</v>
+        <v>0.80005888424990979</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2569,8 +2475,7 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56093328617903693</v>
+        <v>0.98194044374187095</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2581,8 +2486,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25450251673673097</v>
+        <v>0.82335219376727775</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2593,8 +2497,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.467202714909805E-2</v>
+        <v>9.0204877335548161E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2605,8 +2508,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4845846804911661</v>
+        <v>0.9676649815728724</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2617,8 +2519,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23400520133349745</v>
+        <v>0.68725391220631993</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2629,8 +2530,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23061488435070898</v>
+        <v>0.50754507368900659</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2641,8 +2541,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11872484365110136</v>
+        <v>0.88681042982169955</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2653,8 +2552,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5941797865383696E-2</v>
+        <v>0.62502573839094089</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2665,8 +2563,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18680988082441419</v>
+        <v>0.23098656041440357</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2677,8 +2574,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63322747624260478</v>
+        <v>0.34721908918946909</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2689,8 +2585,7 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10936871954251026</v>
+        <v>0.78733500049229876</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2701,8 +2596,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7329811827799837E-4</v>
+        <v>0.60702407200330932</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2713,8 +2607,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9702888433388106</v>
+        <v>0.86417750716341502</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2725,8 +2618,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63173985059602111</v>
+        <v>0.73125666338103201</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2737,8 +2629,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78902188640423032</v>
+        <v>0.37303447875301976</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2749,8 +2640,7 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6685437903526914</v>
+        <v>0.9716630183867907</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2761,8 +2651,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.42247177226099886</v>
+        <v>0.61499165053206017</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2773,8 +2662,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38992223627049949</v>
+        <v>0.2916510085208438</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2785,8 +2673,7 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44939680771582857</v>
+        <v>0.25978992747340302</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2797,8 +2684,7 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89320804086001848</v>
+        <v>0.68947900892129022</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2809,8 +2695,7 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.65530607921642114</v>
+        <v>0.60055997766843816</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2821,8 +2706,7 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72902790350010094</v>
+        <v>0.87494435778541135</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2833,8 +2717,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8277365647162962</v>
+        <v>0.42312486049356146</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2845,8 +2728,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44496524457325348</v>
+        <v>0.79362936587812993</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2857,8 +2739,7 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48949480998794748</v>
+        <v>3.8732600548040175E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2869,8 +2750,7 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4378603244258028E-2</v>
+        <v>0.79330724049556367</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2881,8 +2761,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16221286468883633</v>
+        <v>0.2518478777768236</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2893,8 +2772,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58826983912318753</v>
+        <v>0.49699923027780157</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2905,8 +2783,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7121423493372152E-2</v>
+        <v>0.92189762526729779</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2917,8 +2794,7 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.042648045173511E-3</v>
+        <v>0.89224535142030259</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2929,8 +2805,7 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58256385989010784</v>
+        <v>0.3003272191774613</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2941,8 +2816,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52046062153124495</v>
+        <v>0.5360379800889391</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2953,8 +2827,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.99408201067944968</v>
+        <v>0.60072402399280911</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2965,8 +2838,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31166920160624756</v>
+        <v>0.22486194177539887</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2977,8 +2849,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.62294268079146509</v>
+        <v>0.60794425654311068</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,8 +2860,7 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C178" ca="1" si="2">RAND()</f>
-        <v>0.76143361328367931</v>
+        <v>0.67641047036022195</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3001,8 +2871,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3299193333808782</v>
+        <v>0.89615152637268369</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -3013,8 +2882,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.33358043646438562</v>
+        <v>0.63590819620652506</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -3025,8 +2893,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.13919738642547308</v>
+        <v>0.40183243789611967</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3037,8 +2904,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.22491610322304512</v>
+        <v>0.4074065054293341</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3049,8 +2915,7 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.86373461854631983</v>
+        <v>0.74186646877005846</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -3061,8 +2926,7 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.57244794514435049</v>
+        <v>0.35069321878911108</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,8 +2937,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.83071684972291759</v>
+        <v>1.2714876917932161E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -3085,8 +2948,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.92199220531856629</v>
+        <v>0.26705865457549594</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -3097,8 +2959,7 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55207012591785587</v>
+        <v>0.78387021236381027</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3109,8 +2970,7 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28082784745700462</v>
+        <v>0.75917704688301502</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -3121,8 +2981,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.53737520552381746</v>
+        <v>0.66687622467958607</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -3133,8 +2992,7 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.64880801697290225</v>
+        <v>0.93130116588568068</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,8 +3003,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4533221283776441E-2</v>
+        <v>0.53831238141125015</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -3157,8 +3014,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.86464111937610955</v>
+        <v>0.10040021479581895</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -3169,8 +3025,7 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12205380191947601</v>
+        <v>0.9190193864643128</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -3181,8 +3036,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.74091179089729153</v>
+        <v>8.5097249216516957E-3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -3193,8 +3047,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21765362359677343</v>
+        <v>0.26252112052687226</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -3205,8 +3058,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58580155742839612</v>
+        <v>2.8505358310309759E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -3217,8 +3069,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20584050893233707</v>
+        <v>0.30496156702920507</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -3229,8 +3080,7 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42829098326294335</v>
+        <v>0.90192856407896327</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3241,8 +3091,7 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26870431505030679</v>
+        <v>0.81775986293546354</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -3253,8 +3102,7 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.24565736273597494</v>
+        <v>0.8398799087792107</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -3265,8 +3113,7 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.59198775253239877</v>
+        <v>0.50958110189238126</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -3277,8 +3124,7 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.3542248406643465E-2</v>
+        <v>0.5668985049835642</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -3289,8 +3135,7 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.84360705162938643</v>
+        <v>0.71813367501551884</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -3301,8 +3146,7 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16746571336291882</v>
+        <v>0.52885412555211586</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -3313,8 +3157,7 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.69888285959057128</v>
+        <v>0.88532137465671235</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -3325,8 +3168,7 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.5746956151434246</v>
+        <v>0.65986625203428406</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -3337,8 +3179,7 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48316893605421107</v>
+        <v>0.90041257768192318</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3349,8 +3190,7 @@
         <v>160</v>
       </c>
       <c r="C161">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.9903504037600398</v>
+        <v>4.0306366842551844E-3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3361,8 +3201,7 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.73865396726893207</v>
+        <v>0.62118515947441555</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -3373,8 +3212,7 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.66817888014650495</v>
+        <v>0.79567986855110262</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -3385,8 +3223,7 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.24741664472137848</v>
+        <v>0.84128971788542384</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -3397,8 +3234,7 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.37703583631650595</v>
+        <v>4.0303854679767381E-3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3409,8 +3245,7 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.22414631557943399</v>
+        <v>0.70993173074190796</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -3421,8 +3256,7 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42209087616756047</v>
+        <v>0.91193961579239202</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -3433,8 +3267,7 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6288726013599142E-2</v>
+        <v>0.33328310302995878</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -3445,8 +3278,7 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.29263632943626394</v>
+        <v>0.73886187956710569</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -3457,8 +3289,7 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17919175424408051</v>
+        <v>0.37673729570608527</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -3469,8 +3300,7 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.62580746833011092</v>
+        <v>0.2931338330437121</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -3481,8 +3311,7 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.66597023146494894</v>
+        <v>0.59543966022930617</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -3493,8 +3322,7 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27102503787176013</v>
+        <v>0.11930349904099691</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -3505,8 +3333,7 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6386327934381002</v>
+        <v>0.16664962408979023</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -3517,8 +3344,7 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32055385246270485</v>
+        <v>0.79659137458500207</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -3529,8 +3355,7 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.96354606393919928</v>
+        <v>0.52784070586161824</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3541,8 +3366,7 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39177530248321402</v>
+        <v>0.70044303502015626</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3553,8 +3377,7 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10096414095493267</v>
+        <v>7.4487893023924334E-2</v>
       </c>
     </row>
   </sheetData>
